--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>万家创业板2年定期开放混合C</t>
   </si>
   <si>
+    <t>17.42</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
     <t>94.05</t>
   </si>
   <si>
     <t>5.99</t>
+  </si>
+  <si>
+    <t>1.0435</t>
+  </si>
+  <si>
+    <t>0.1569</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>161914</t>
-  </si>
-  <si>
-    <t>161915</t>
-  </si>
-  <si>
-    <t>万家创业板2年定期开放混合A</t>
-  </si>
-  <si>
-    <t>万家创业板2年定期开放混合C</t>
-  </si>
-  <si>
-    <t>17.42</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>94.05</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>1.0435</t>
-  </si>
-  <si>
-    <t>0.1569</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,757 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1199,4 +1200,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1484,4 +1485,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1493,7 +1494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,17 +1505,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1524,14 +1545,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.73</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1540,14 +1583,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.67</v>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1556,13 +1621,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1702,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,17 +1714,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1733,14 +1754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.12</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1749,14 +1792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.73</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1765,14 +1830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.67</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1781,13 +1868,681 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2441,7 +2442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,17 +2453,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2472,14 +2493,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.78</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2488,14 +2531,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.12</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2504,14 +2569,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.73</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2520,14 +2607,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.67</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2536,13 +2645,925 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0435</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1569</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -649,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.06</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.01</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8773</t>
+          <t>1.4513</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011104</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信智能汽车主题股票</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.47</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>55.93</t>
+          <t>89.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2501</t>
+          <t>0.8972</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.06</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.40</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1623</t>
+          <t>0.7242</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5189</t>
+          <t>0.6416</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.01</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2817</t>
+          <t>0.4386</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009381</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安核心资产混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2558</t>
+          <t>0.2171</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -877,26 +877,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>66.02</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1966</t>
+          <t>0.2052</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006969</t>
+          <t>570005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰高端制造混合</t>
+          <t>诺德成长优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0853</t>
+          <t>0.2018</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.1696</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -981,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003561</t>
+          <t>012036</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合A</t>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24.34</t>
+          <t>68.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1019,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>90.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1057,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009382</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇安核心资产混合C</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1095,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>000826</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>广发中证百度百发策略100指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1133,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>000827</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>广发中证百度百发策略100指数E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1171,34 +1171,414 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>003562</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>10</v>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1613,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1273,26 +1653,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7014</t>
+          <t>1.4701</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1311,26 +1691,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.78</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>88.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7657</t>
+          <t>0.9075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1339,36 +1719,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>87.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2556</t>
+          <t>0.3702</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1377,36 +1757,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.85</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.2204</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1415,36 +1795,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008885</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博远博锐混合C</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.85</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.2138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1453,36 +1833,490 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001744</t>
+          <t>570005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安进取回报灵活配置混合</t>
+          <t>诺德成长优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.88</t>
+          <t>62.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.1806</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +2538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,7 +2559,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1765,26 +2599,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>99.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4701</t>
+          <t>1.7014</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1803,26 +2637,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>25.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>87.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9075</t>
+          <t>0.7657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1831,36 +2665,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.42</t>
+          <t>99.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3702</t>
+          <t>0.2556</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1869,36 +2703,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>78.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1907,36 +2741,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>008885</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>博远博锐混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>78.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2138</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1945,490 +2779,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>001744</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>诺安进取回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.89</t>
+          <t>37.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1806</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1483</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012036</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>52.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1141</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003561</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>53.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>53.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2463,7 +2843,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2503,26 +2883,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4513</t>
+          <t>1.8773</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2531,36 +2911,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>011104</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>光大保德信智能汽车主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>32.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>55.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8972</t>
+          <t>1.2501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2569,36 +2949,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>86.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7242</t>
+          <t>1.1623</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2607,36 +2987,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009837</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏磐锐一年定期开放混合A</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>88.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6416</t>
+          <t>0.5189</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2645,36 +3025,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4386</t>
+          <t>0.2817</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2683,36 +3063,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>009381</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>汇安核心资产混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2171</t>
+          <t>0.2558</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2731,26 +3111,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>66.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2052</t>
+          <t>0.1966</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2759,36 +3139,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>006969</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>圆信永丰高端制造混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2018</t>
+          <t>0.0853</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2797,36 +3177,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1696</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2835,36 +3215,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012036</t>
+          <t>003561</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+          <t>诺德成长精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68.93</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2873,36 +3253,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2911,36 +3291,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>009382</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>汇安核心资产混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2949,36 +3329,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000826</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发中证百度百发策略100指数A</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2987,36 +3367,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000827</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发中证百度百发策略100指数E</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3025,414 +3405,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>003562</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003561</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>65.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009838</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏磐锐一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83.74</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>65.13</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3446,128 +3446,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.36</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.2</v>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>5.36</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>3.78</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.12</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.73</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.67</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -583,6 +600,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2324,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2532,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2816,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3440,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
+++ b/数据整理/stocks/A股/创业板/300887-谱尼测试.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.36</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>3.78</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.12</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.73</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.67</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +2910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3043,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3251,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3535,7 +4140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4159,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
